--- a/data/trans_orig/POLIPATOLOGIA_5-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_5-Edad-trans_orig.xlsx
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5024</v>
+        <v>5646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00136322367341644</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006830680974809193</v>
+        <v>0.007676066795552806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -934,19 +934,19 @@
         <v>11123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6051</v>
+        <v>5498</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20950</v>
+        <v>19400</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01778271664099065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009674554004396466</v>
+        <v>0.008790097094226082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03349292894803367</v>
+        <v>0.03101553063829693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -955,19 +955,19 @@
         <v>12126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6909</v>
+        <v>6025</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23218</v>
+        <v>20844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008909457293672762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005076570212678847</v>
+        <v>0.004426900589711115</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01705977428139276</v>
+        <v>0.01531514574131551</v>
       </c>
     </row>
     <row r="8">
@@ -984,7 +984,7 @@
         <v>734486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>730465</v>
+        <v>729843</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -993,7 +993,7 @@
         <v>0.9986367763265835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9931693190251908</v>
+        <v>0.992323933204447</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1005,19 +1005,19 @@
         <v>614371</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604544</v>
+        <v>606094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>619443</v>
+        <v>619996</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9822172833590094</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9665070710519665</v>
+        <v>0.9689844693617048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9903254459956036</v>
+        <v>0.9912099029057757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1283</v>
@@ -1026,19 +1026,19 @@
         <v>1348856</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1337764</v>
+        <v>1340138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1354073</v>
+        <v>1354957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9910905427063272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.982940225718608</v>
+        <v>0.984684854258683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9949234297873212</v>
+        <v>0.9955730994102889</v>
       </c>
     </row>
     <row r="9">
@@ -1130,19 +1130,19 @@
         <v>5059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1862</v>
+        <v>1998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10899</v>
+        <v>10962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0079218861649181</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002915980675545115</v>
+        <v>0.003128574757145554</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01706469772637432</v>
+        <v>0.01716390953493839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1151,19 +1151,19 @@
         <v>13789</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7306</v>
+        <v>7588</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21742</v>
+        <v>22032</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01999213128775485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01059281482615793</v>
+        <v>0.01100154291865199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03152159227203392</v>
+        <v>0.03194195715275652</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1172,19 +1172,19 @@
         <v>18849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11855</v>
+        <v>12161</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27998</v>
+        <v>29328</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01418905571806683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008924116088880748</v>
+        <v>0.009154522399606031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02107606740608605</v>
+        <v>0.02207727699254464</v>
       </c>
     </row>
     <row r="11">
@@ -1201,19 +1201,19 @@
         <v>633609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>627769</v>
+        <v>627706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636806</v>
+        <v>636670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9920781138350819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829353022736257</v>
+        <v>0.9828360904650617</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997084019324455</v>
+        <v>0.9968714252428544</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -1222,19 +1222,19 @@
         <v>675955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>668002</v>
+        <v>667712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682438</v>
+        <v>682156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9800078687122451</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.968478407727966</v>
+        <v>0.9680580428472435</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9894071851738419</v>
+        <v>0.9889984570813479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1252</v>
@@ -1243,19 +1243,19 @@
         <v>1309563</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1300414</v>
+        <v>1299084</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1316557</v>
+        <v>1316251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9858109442819332</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.978923932593914</v>
+        <v>0.9779227230074553</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9910758839111191</v>
+        <v>0.9908454776003938</v>
       </c>
     </row>
     <row r="12">
@@ -1347,19 +1347,19 @@
         <v>10974</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5444</v>
+        <v>5280</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19895</v>
+        <v>19901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0211384946085138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01048655924186994</v>
+        <v>0.01016979406502132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03832277315720829</v>
+        <v>0.03833319825979071</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1368,19 +1368,19 @@
         <v>26427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17658</v>
+        <v>17614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39643</v>
+        <v>38787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05125017465376932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03424487905845405</v>
+        <v>0.03415927019180956</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07688123778010818</v>
+        <v>0.07522003753981403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1389,19 +1389,19 @@
         <v>37401</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25491</v>
+        <v>26661</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50372</v>
+        <v>52211</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03614333726633123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02463383097657127</v>
+        <v>0.02576454508600605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04867825154925307</v>
+        <v>0.05045581846609523</v>
       </c>
     </row>
     <row r="14">
@@ -1418,19 +1418,19 @@
         <v>508173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>499252</v>
+        <v>499246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>513703</v>
+        <v>513867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9788615053914862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9616772268427917</v>
+        <v>0.9616668017402094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895134407581301</v>
+        <v>0.9898302059349787</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -1439,19 +1439,19 @@
         <v>489215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>475999</v>
+        <v>476855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>497984</v>
+        <v>498028</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9487498253462306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9231187622198919</v>
+        <v>0.9247799624601858</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9657551209415459</v>
+        <v>0.9658407298081904</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>951</v>
@@ -1460,19 +1460,19 @@
         <v>997388</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>984417</v>
+        <v>982578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1009298</v>
+        <v>1008128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9638566627336688</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.951321748450747</v>
+        <v>0.9495441815339049</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9753661690234288</v>
+        <v>0.974235454913994</v>
       </c>
     </row>
     <row r="15">
@@ -1564,19 +1564,19 @@
         <v>23723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15603</v>
+        <v>15955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34716</v>
+        <v>35753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06134512721162735</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04034795364481233</v>
+        <v>0.04125928073619008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08977206779303905</v>
+        <v>0.09245329250404488</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1585,19 +1585,19 @@
         <v>41503</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30427</v>
+        <v>30561</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53948</v>
+        <v>53595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1027347416485599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07531686752333291</v>
+        <v>0.07564812943142186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1335401151637956</v>
+        <v>0.1326665035402192</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1606,19 +1606,19 @@
         <v>65226</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50477</v>
+        <v>50771</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80305</v>
+        <v>82452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08249209596895757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0638385602233696</v>
+        <v>0.06421022980412582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1015622384577049</v>
+        <v>0.1042776640166486</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>362987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>351994</v>
+        <v>350957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>371107</v>
+        <v>370755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9386548727883727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9102279322069611</v>
+        <v>0.9075467074959552</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9596520463551877</v>
+        <v>0.95874071926381</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>354</v>
@@ -1656,19 +1656,19 @@
         <v>362483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>350038</v>
+        <v>350391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>373559</v>
+        <v>373425</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.89726525835144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8664598848362043</v>
+        <v>0.8673334964597808</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.924683132476667</v>
+        <v>0.9243518705685779</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>722</v>
@@ -1677,19 +1677,19 @@
         <v>725470</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>710391</v>
+        <v>708244</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>740219</v>
+        <v>739925</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9175079040310424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8984377615422957</v>
+        <v>0.8957223359833515</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9361614397766306</v>
+        <v>0.9357897701958742</v>
       </c>
     </row>
     <row r="18">
@@ -1781,19 +1781,19 @@
         <v>35708</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25494</v>
+        <v>26052</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46668</v>
+        <v>47474</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1220446553898445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08713329416641644</v>
+        <v>0.08904104817851465</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1595029277238653</v>
+        <v>0.1622572681749008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -1802,19 +1802,19 @@
         <v>57926</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45433</v>
+        <v>45512</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70739</v>
+        <v>72704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.16891404597888</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1324831159881886</v>
+        <v>0.1327131810342384</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2062753097946441</v>
+        <v>0.2120060505626451</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -1823,19 +1823,19 @@
         <v>93635</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77195</v>
+        <v>77624</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112017</v>
+        <v>112879</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1473360442362439</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1214685831699061</v>
+        <v>0.1221432668677083</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1762606248502392</v>
+        <v>0.1776173246482039</v>
       </c>
     </row>
     <row r="20">
@@ -1852,19 +1852,19 @@
         <v>256875</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245915</v>
+        <v>245109</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267089</v>
+        <v>266531</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8779553446101556</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8404970722761347</v>
+        <v>0.8377427318250988</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9128667058335836</v>
+        <v>0.9109589518214852</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>310</v>
@@ -1873,19 +1873,19 @@
         <v>285008</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>272195</v>
+        <v>270230</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>297501</v>
+        <v>297422</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.83108595402112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.793724690205356</v>
+        <v>0.7879939494373549</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8675168840118114</v>
+        <v>0.8672868189657617</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>575</v>
@@ -1894,19 +1894,19 @@
         <v>541882</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>523500</v>
+        <v>522638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>558322</v>
+        <v>557893</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8526639557637561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8237393751497608</v>
+        <v>0.8223826753517961</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8785314168300943</v>
+        <v>0.8778567331322914</v>
       </c>
     </row>
     <row r="21">
@@ -1998,19 +1998,19 @@
         <v>35370</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25434</v>
+        <v>25567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46744</v>
+        <v>46358</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1685246931361772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1211831558576109</v>
+        <v>0.1218142332525405</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.222716028614463</v>
+        <v>0.2208768144850511</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -2019,19 +2019,19 @@
         <v>75780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60680</v>
+        <v>60246</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92133</v>
+        <v>93036</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2269484334752607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1817274440905079</v>
+        <v>0.1804268589754736</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2759237104407535</v>
+        <v>0.2786288441449625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -2040,19 +2040,19 @@
         <v>111150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>92044</v>
+        <v>93152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131111</v>
+        <v>131969</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2043990527200423</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1692633656394666</v>
+        <v>0.1713015136258349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2411053796831626</v>
+        <v>0.242682644085673</v>
       </c>
     </row>
     <row r="23">
@@ -2069,19 +2069,19 @@
         <v>174513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>163139</v>
+        <v>163525</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>184449</v>
+        <v>184316</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8314753068638228</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7772839713855374</v>
+        <v>0.779123185514949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.878816844142389</v>
+        <v>0.8781857667474595</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>224</v>
@@ -2090,19 +2090,19 @@
         <v>258128</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>241775</v>
+        <v>240872</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>273228</v>
+        <v>273662</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7730515665247393</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7240762895592467</v>
+        <v>0.7213711558550383</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8182725559094923</v>
+        <v>0.8195731410245264</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>406</v>
@@ -2111,19 +2111,19 @@
         <v>432641</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>412680</v>
+        <v>411822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>451747</v>
+        <v>450639</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7956009472799577</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7588946203168374</v>
+        <v>0.757317355914327</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8307366343605334</v>
+        <v>0.8286984863741652</v>
       </c>
     </row>
     <row r="24">
@@ -2215,19 +2215,19 @@
         <v>111838</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03413277547467264</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>218</v>
@@ -2236,19 +2236,19 @@
         <v>226549</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06704220913826139</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>334</v>
@@ -2257,19 +2257,19 @@
         <v>338386</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05084127958350297</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>3164705</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3142336</v>
+        <v>3145104</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3183762</v>
+        <v>3182916</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9658672245253274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9590401375536898</v>
+        <v>0.9598847291182853</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9716831501878214</v>
+        <v>0.9714249392423752</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3079</v>
@@ -2307,19 +2307,19 @@
         <v>3152648</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3121412</v>
+        <v>3120127</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3184059</v>
+        <v>3180407</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9329577908617386</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9237140365327977</v>
+        <v>0.9233339519868029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9422531785775206</v>
+        <v>0.9411725449832071</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6177</v>
@@ -2328,19 +2328,19 @@
         <v>6317355</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6279476</v>
+        <v>6282333</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6352556</v>
+        <v>6351656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9491587204164971</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9434675454329475</v>
+        <v>0.9438969138112202</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9544476425035028</v>
+        <v>0.9543123025656122</v>
       </c>
     </row>
     <row r="27">
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4569</v>
+        <v>5414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002113847359070504</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01006099000552669</v>
+        <v>0.01192193631780517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5495</v>
+        <v>5099</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002278787245627226</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01277312448902602</v>
+        <v>0.01185231561450823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6844</v>
+        <v>5896</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002194087051894728</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00773882501314336</v>
+        <v>0.006667216765388522</v>
       </c>
     </row>
     <row r="5">
@@ -2746,7 +2746,7 @@
         <v>453186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449577</v>
+        <v>448732</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -2755,7 +2755,7 @@
         <v>0.9978861526409295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9899390099944732</v>
+        <v>0.9880780636821942</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2767,7 +2767,7 @@
         <v>429250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424735</v>
+        <v>425131</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -2776,7 +2776,7 @@
         <v>0.9977212127543728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9872268755109739</v>
+        <v>0.9881476843854931</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>882436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877532</v>
+        <v>878480</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -2797,7 +2797,7 @@
         <v>0.9978059129481053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9922611749868566</v>
+        <v>0.9933327832346117</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5135</v>
+        <v>6870</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001501325578861321</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007473205907126263</v>
+        <v>0.009998685684904017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2913,19 +2913,19 @@
         <v>7207</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2779</v>
+        <v>2855</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15337</v>
+        <v>16714</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01181033669180478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004553055588319814</v>
+        <v>0.004678266080977497</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02513220552423616</v>
+        <v>0.027388396405276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2934,19 +2934,19 @@
         <v>8239</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3655</v>
+        <v>3116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17495</v>
+        <v>17922</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006350569351883411</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00281724294666725</v>
+        <v>0.002401471390002537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01348516527694386</v>
+        <v>0.01381415626549174</v>
       </c>
     </row>
     <row r="8">
@@ -2963,7 +2963,7 @@
         <v>686055</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681952</v>
+        <v>680217</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -2972,7 +2972,7 @@
         <v>0.9984986744211387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9925267940928737</v>
+        <v>0.9900013143150976</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2984,19 +2984,19 @@
         <v>603048</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>594918</v>
+        <v>593541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>607476</v>
+        <v>607400</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9881896633081952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9748677944757642</v>
+        <v>0.9726116035947241</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9954469444116801</v>
+        <v>0.9953217339190226</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1231</v>
@@ -3005,19 +3005,19 @@
         <v>1289103</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1279847</v>
+        <v>1279420</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1293687</v>
+        <v>1294226</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9936494306481166</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9865148347230561</v>
+        <v>0.9861858437345067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971827570533327</v>
+        <v>0.9975985286099961</v>
       </c>
     </row>
     <row r="9">
@@ -3109,19 +3109,19 @@
         <v>2851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7750</v>
+        <v>8469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00418062693776276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001308770676059694</v>
+        <v>0.00131303637662488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01136584878744095</v>
+        <v>0.01242013121678204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3130,19 +3130,19 @@
         <v>22267</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14365</v>
+        <v>14441</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34483</v>
+        <v>33281</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03132422561774457</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02020759657556893</v>
+        <v>0.02031455594476212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04850948680823074</v>
+        <v>0.04681807592931317</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -3151,19 +3151,19 @@
         <v>25117</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16259</v>
+        <v>16319</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37726</v>
+        <v>38109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01803490076804814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01167409061116208</v>
+        <v>0.0117177359424424</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02708837943065427</v>
+        <v>0.02736298323157972</v>
       </c>
     </row>
     <row r="11">
@@ -3180,19 +3180,19 @@
         <v>679012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>674113</v>
+        <v>673394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680971</v>
+        <v>680968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9958193730622372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.988634151212559</v>
+        <v>0.987579868783218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986912293239404</v>
+        <v>0.9986869636233751</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>646</v>
@@ -3201,19 +3201,19 @@
         <v>688583</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>676367</v>
+        <v>677569</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>696485</v>
+        <v>696409</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9686757743822554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9514905131917692</v>
+        <v>0.9531819240706868</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9797924034244312</v>
+        <v>0.9796854440552379</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1294</v>
@@ -3222,19 +3222,19 @@
         <v>1367595</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1354986</v>
+        <v>1354603</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1376453</v>
+        <v>1376393</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9819650992319519</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9729116205693457</v>
+        <v>0.9726370167684202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9883259093888378</v>
+        <v>0.9882822640575576</v>
       </c>
     </row>
     <row r="12">
@@ -3326,19 +3326,19 @@
         <v>12746</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6430</v>
+        <v>6293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22997</v>
+        <v>21676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02073733060790612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0104620246741875</v>
+        <v>0.01023930798697864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03741666735461256</v>
+        <v>0.03526777791817176</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -3347,19 +3347,19 @@
         <v>40837</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30146</v>
+        <v>28545</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57474</v>
+        <v>56926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06627207777484947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04892188839763745</v>
+        <v>0.04632428271328734</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.093271407167346</v>
+        <v>0.09238219696063051</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -3368,19 +3368,19 @@
         <v>53582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39476</v>
+        <v>40020</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70000</v>
+        <v>70150</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04353397548294465</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03207334477299548</v>
+        <v>0.03251491888969281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05687290488282622</v>
+        <v>0.05699434997159084</v>
       </c>
     </row>
     <row r="14">
@@ -3397,19 +3397,19 @@
         <v>601871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>591620</v>
+        <v>592941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608187</v>
+        <v>608324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9792626693920938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9625833326453875</v>
+        <v>0.964732222081829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895379753258124</v>
+        <v>0.9897606920130214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>503</v>
@@ -3418,19 +3418,19 @@
         <v>575362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>558725</v>
+        <v>559273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>586053</v>
+        <v>587654</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9337279222251506</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9067285928326539</v>
+        <v>0.9076178030393699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9510781116023626</v>
+        <v>0.9536757172867127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1040</v>
@@ -3439,19 +3439,19 @@
         <v>1177234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1160816</v>
+        <v>1160666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1191340</v>
+        <v>1190796</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9564660245170553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9431270951171739</v>
+        <v>0.9430056500284092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9679266552270045</v>
+        <v>0.9674850811103073</v>
       </c>
     </row>
     <row r="15">
@@ -3543,19 +3543,19 @@
         <v>17874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11320</v>
+        <v>11199</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27986</v>
+        <v>28172</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04162171453420817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02636067811538744</v>
+        <v>0.02607865742938545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06517064774522534</v>
+        <v>0.06560402654195767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -3564,19 +3564,19 @@
         <v>70156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54854</v>
+        <v>56328</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86198</v>
+        <v>89301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1566676372215036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1224971894824813</v>
+        <v>0.1257891697072016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1924915107353511</v>
+        <v>0.1994216447888738</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -3585,19 +3585,19 @@
         <v>88029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71091</v>
+        <v>70561</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107568</v>
+        <v>106846</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1003493156346986</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08104088986904687</v>
+        <v>0.08043580940839941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1226220031082687</v>
+        <v>0.1217995082608147</v>
       </c>
     </row>
     <row r="17">
@@ -3614,19 +3614,19 @@
         <v>411555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401443</v>
+        <v>401257</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>418109</v>
+        <v>418230</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9583782854657918</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9348293522547745</v>
+        <v>0.9343959734580425</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9736393218846126</v>
+        <v>0.9739213425706147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>341</v>
@@ -3635,19 +3635,19 @@
         <v>377644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>361602</v>
+        <v>358499</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>392946</v>
+        <v>391472</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8433323627784963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8075084892646487</v>
+        <v>0.8005783552111262</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8775028105175188</v>
+        <v>0.8742108302927983</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>717</v>
@@ -3656,19 +3656,19 @@
         <v>789200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>769661</v>
+        <v>770383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>806138</v>
+        <v>806668</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8996506843653014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8773779968917313</v>
+        <v>0.8782004917391855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9189591101309531</v>
+        <v>0.9195641905916007</v>
       </c>
     </row>
     <row r="18">
@@ -3760,19 +3760,19 @@
         <v>43922</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31629</v>
+        <v>31041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58267</v>
+        <v>58270</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1417808533434599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1020989956542872</v>
+        <v>0.100202040433013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1880890527209415</v>
+        <v>0.1880966700567554</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -3781,19 +3781,19 @@
         <v>71318</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58273</v>
+        <v>55840</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89701</v>
+        <v>87527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2014660274745404</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1646146773300307</v>
+        <v>0.1577425354473894</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2533944882238779</v>
+        <v>0.2472540427802658</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -3802,19 +3802,19 @@
         <v>115240</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97020</v>
+        <v>96212</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135468</v>
+        <v>138905</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1736110432234887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1461630657992243</v>
+        <v>0.1449455495564229</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2040848232509585</v>
+        <v>0.2092635209287778</v>
       </c>
     </row>
     <row r="20">
@@ -3831,19 +3831,19 @@
         <v>265864</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251519</v>
+        <v>251516</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>278157</v>
+        <v>278745</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8582191466565401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8119109472790585</v>
+        <v>0.8119033299432447</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.897901004345713</v>
+        <v>0.899797959566987</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>275</v>
@@ -3852,19 +3852,19 @@
         <v>282678</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>264295</v>
+        <v>266469</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>295723</v>
+        <v>298156</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7985339725254597</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7466055117761218</v>
+        <v>0.752745957219734</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8353853226699691</v>
+        <v>0.8422574645526102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>518</v>
@@ -3873,19 +3873,19 @@
         <v>548542</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>528314</v>
+        <v>524877</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>566762</v>
+        <v>567570</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8263889567765113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7959151767490414</v>
+        <v>0.7907364790712221</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8538369342007758</v>
+        <v>0.8550544504435771</v>
       </c>
     </row>
     <row r="21">
@@ -3977,19 +3977,19 @@
         <v>50469</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37306</v>
+        <v>37832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65222</v>
+        <v>64618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2019947360432786</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1493137144569876</v>
+        <v>0.1514173979709507</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2610434369504721</v>
+        <v>0.2586245959434021</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -3998,19 +3998,19 @@
         <v>138241</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>119043</v>
+        <v>119416</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158158</v>
+        <v>157821</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3553947826125816</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3060405506223128</v>
+        <v>0.3069980657924549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.406596717520383</v>
+        <v>0.4057309662414256</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -4019,19 +4019,19 @@
         <v>188710</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>165019</v>
+        <v>164757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>210426</v>
+        <v>212168</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2953989441451868</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2583141296325135</v>
+        <v>0.2579044412895367</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3293925458676183</v>
+        <v>0.3321192852681254</v>
       </c>
     </row>
     <row r="23">
@@ -4048,19 +4048,19 @@
         <v>199382</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>184629</v>
+        <v>185233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>212545</v>
+        <v>212019</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7980052639567214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7389565630495278</v>
+        <v>0.7413754040565977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8506862855430124</v>
+        <v>0.8485826020290491</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>225</v>
@@ -4069,19 +4069,19 @@
         <v>250738</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>230821</v>
+        <v>231158</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>269936</v>
+        <v>269563</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6446052173874184</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.593403282479617</v>
+        <v>0.5942690337585743</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6939594493776872</v>
+        <v>0.6930019342075451</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>401</v>
@@ -4090,19 +4090,19 @@
         <v>450120</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>428404</v>
+        <v>426662</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>473811</v>
+        <v>474073</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7046010558548131</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6706074541323825</v>
+        <v>0.6678807147318746</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7416858703674876</v>
+        <v>0.7420955587104633</v>
       </c>
     </row>
     <row r="24">
@@ -4194,19 +4194,19 @@
         <v>129852</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>107939</v>
+        <v>108486</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>153561</v>
+        <v>155340</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03789317921906614</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03149872547148206</v>
+        <v>0.0316582666591371</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04481191429653711</v>
+        <v>0.04533108741384586</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>323</v>
@@ -4215,19 +4215,19 @@
         <v>351006</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>317362</v>
+        <v>315711</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>388643</v>
+        <v>390505</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09864415026248594</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08918912324439045</v>
+        <v>0.08872508609844039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1092212705839782</v>
+        <v>0.1097446696746234</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>441</v>
@@ -4236,19 +4236,19 @@
         <v>480858</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>438545</v>
+        <v>440150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>524363</v>
+        <v>530716</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06884063957846386</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06278299349435058</v>
+        <v>0.0630127691804012</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07506897170087763</v>
+        <v>0.07597848573440485</v>
       </c>
     </row>
     <row r="26">
@@ -4265,19 +4265,19 @@
         <v>3296927</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3273218</v>
+        <v>3271439</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3318840</v>
+        <v>3318293</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9621068207809339</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9551880857034629</v>
+        <v>0.9546689125861542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.968501274528518</v>
+        <v>0.9683417333408629</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2975</v>
@@ -4286,19 +4286,19 @@
         <v>3207303</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3169666</v>
+        <v>3167804</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3240947</v>
+        <v>3242598</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.901355849737514</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.890778729416022</v>
+        <v>0.8902553303253768</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9108108767556098</v>
+        <v>0.9112749139015597</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6066</v>
@@ -4307,19 +4307,19 @@
         <v>6504230</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6460725</v>
+        <v>6454372</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6546543</v>
+        <v>6544938</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9311593604215361</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9249310282991222</v>
+        <v>0.9240215142655951</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9372170065056492</v>
+        <v>0.9369872308195984</v>
       </c>
     </row>
     <row r="27">
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4792</v>
+        <v>4786</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00242204843575469</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01210951204468323</v>
+        <v>0.0120943420357578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3857</v>
+        <v>4821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001175805470603809</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004731768512926541</v>
+        <v>0.005914160306686101</v>
       </c>
     </row>
     <row r="5">
@@ -4730,7 +4730,7 @@
         <v>394796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390963</v>
+        <v>390969</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4739,7 +4739,7 @@
         <v>0.9975779515642453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9878904879553169</v>
+        <v>0.9879056579642422</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4751,7 +4751,7 @@
         <v>814259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>811361</v>
+        <v>810397</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4760,7 +4760,7 @@
         <v>0.9988241945293962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9952682314870734</v>
+        <v>0.9940858396933139</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4868,19 +4868,19 @@
         <v>6019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2355</v>
+        <v>2404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12681</v>
+        <v>12125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01068096843104832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004179748939834935</v>
+        <v>0.004266561706083119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02250205030749698</v>
+        <v>0.02151580348501584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4889,19 +4889,19 @@
         <v>6019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2296</v>
+        <v>2287</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12939</v>
+        <v>12827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005215757320605986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001989624892600214</v>
+        <v>0.001981476255850043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01121229538609855</v>
+        <v>0.01111475569688988</v>
       </c>
     </row>
     <row r="8">
@@ -4931,19 +4931,19 @@
         <v>557525</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>550863</v>
+        <v>551419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>561189</v>
+        <v>561140</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9893190315689517</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9774979496925028</v>
+        <v>0.9784841965149842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958202510601651</v>
+        <v>0.9957334382939178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1140</v>
@@ -4952,19 +4952,19 @@
         <v>1148021</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1141101</v>
+        <v>1141213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1151744</v>
+        <v>1151753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.994784242679394</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9887877046139016</v>
+        <v>0.9888852443031103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980103751074002</v>
+        <v>0.99801852374415</v>
       </c>
     </row>
     <row r="9">
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9454</v>
+        <v>9093</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003680088177620474</v>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01412937072523232</v>
+        <v>0.01358961929687212</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -5077,19 +5077,19 @@
         <v>15682</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9345</v>
+        <v>9704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24829</v>
+        <v>24263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02371028841798177</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01412985445058527</v>
+        <v>0.01467177381843451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03754127136951279</v>
+        <v>0.03668446436894107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -5098,19 +5098,19 @@
         <v>18144</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10931</v>
+        <v>10732</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27528</v>
+        <v>26947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01363714881853023</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008215470120796689</v>
+        <v>0.008066317479603194</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0206900000907354</v>
+        <v>0.02025339940380787</v>
       </c>
     </row>
     <row r="11">
@@ -5127,7 +5127,7 @@
         <v>666635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>659643</v>
+        <v>660004</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5136,7 +5136,7 @@
         <v>0.9963199118223796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858706292747678</v>
+        <v>0.9864103807031286</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5148,19 +5148,19 @@
         <v>645704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>636557</v>
+        <v>637123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652041</v>
+        <v>651682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9762897115820183</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9624587286304873</v>
+        <v>0.9633155356310591</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9858701455494147</v>
+        <v>0.9853282261815656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1284</v>
@@ -5169,19 +5169,19 @@
         <v>1312339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1302955</v>
+        <v>1303536</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1319552</v>
+        <v>1319751</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9863628511814697</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9793099999092646</v>
+        <v>0.9797466005961921</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9917845298792033</v>
+        <v>0.9919336825203968</v>
       </c>
     </row>
     <row r="12">
@@ -5273,19 +5273,19 @@
         <v>16318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8868</v>
+        <v>9830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27360</v>
+        <v>25890</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02525851521161386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01372643904037766</v>
+        <v>0.01521510721058199</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04234955977906988</v>
+        <v>0.04007400340213001</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -5294,19 +5294,19 @@
         <v>45118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32565</v>
+        <v>33522</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60332</v>
+        <v>59173</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06951130294825546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05017171996103078</v>
+        <v>0.05164489562196233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09295022459861783</v>
+        <v>0.09116466213786019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -5315,19 +5315,19 @@
         <v>61436</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47719</v>
+        <v>46870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78754</v>
+        <v>78088</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04743665148923005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03684518410546715</v>
+        <v>0.03618963774280789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06080766210899641</v>
+        <v>0.06029384705063427</v>
       </c>
     </row>
     <row r="14">
@@ -5344,19 +5344,19 @@
         <v>629730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>618688</v>
+        <v>620158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>637180</v>
+        <v>636218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9747414847883862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9576504402209303</v>
+        <v>0.9599259965978703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9862735609596224</v>
+        <v>0.9847848927894179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>560</v>
@@ -5365,19 +5365,19 @@
         <v>603959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>588745</v>
+        <v>589904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>616512</v>
+        <v>615555</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9304886970517445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9070497754013822</v>
+        <v>0.9088353378621405</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9498282800389694</v>
+        <v>0.9483551043780378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1127</v>
@@ -5386,19 +5386,19 @@
         <v>1233689</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1216371</v>
+        <v>1217037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1247406</v>
+        <v>1248255</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.95256334851077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9391923378910035</v>
+        <v>0.9397061529493658</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9631548158945329</v>
+        <v>0.9638103622571921</v>
       </c>
     </row>
     <row r="15">
@@ -5490,19 +5490,19 @@
         <v>24843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16338</v>
+        <v>15762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38349</v>
+        <v>36739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05198108190399624</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03418640085953284</v>
+        <v>0.03298094148402515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08024113480436611</v>
+        <v>0.07687206340572274</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -5511,19 +5511,19 @@
         <v>78431</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62292</v>
+        <v>62985</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95952</v>
+        <v>95235</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1578569055790851</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1253750822322178</v>
+        <v>0.1267684313252233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1931208748409455</v>
+        <v>0.1916776406224406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -5532,19 +5532,19 @@
         <v>103274</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85893</v>
+        <v>84005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>126546</v>
+        <v>125599</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1059471038062644</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08811645402656598</v>
+        <v>0.08617956097884374</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1298221809249813</v>
+        <v>0.1288505484062944</v>
       </c>
     </row>
     <row r="17">
@@ -5561,19 +5561,19 @@
         <v>453075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>439569</v>
+        <v>441179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>461580</v>
+        <v>462156</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9480189180960038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9197588651956339</v>
+        <v>0.9231279365942778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9658135991404672</v>
+        <v>0.9670190585159749</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>365</v>
@@ -5582,19 +5582,19 @@
         <v>418418</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>400897</v>
+        <v>401614</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>434557</v>
+        <v>433864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.842143094420915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8068791251590545</v>
+        <v>0.8083223593775596</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8746249177677822</v>
+        <v>0.8732315686747768</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>768</v>
@@ -5603,19 +5603,19 @@
         <v>871493</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>848221</v>
+        <v>849168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>888874</v>
+        <v>890762</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8940528961937356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8701778190750187</v>
+        <v>0.8711494515937055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9118835459734338</v>
+        <v>0.9138204390211561</v>
       </c>
     </row>
     <row r="18">
@@ -5707,19 +5707,19 @@
         <v>28267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19662</v>
+        <v>19795</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40264</v>
+        <v>40318</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08454727728206544</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05881151252823229</v>
+        <v>0.05920801842491732</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1204307761973232</v>
+        <v>0.1205942962223236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>83</v>
@@ -5728,19 +5728,19 @@
         <v>87954</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71270</v>
+        <v>72033</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104665</v>
+        <v>107625</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.232829081612979</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1886632310254986</v>
+        <v>0.1906838869718353</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2770672980028545</v>
+        <v>0.2849020566997917</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -5749,19 +5749,19 @@
         <v>116221</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97475</v>
+        <v>97935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136775</v>
+        <v>137315</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1632101905346752</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1368856737069272</v>
+        <v>0.1375311873297479</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1920749319608472</v>
+        <v>0.1928333478412163</v>
       </c>
     </row>
     <row r="20">
@@ -5778,19 +5778,19 @@
         <v>306063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294066</v>
+        <v>294012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>314668</v>
+        <v>314535</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9154527227179345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8795692238026769</v>
+        <v>0.8794057037776767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9411884874717676</v>
+        <v>0.9407919815750827</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>271</v>
@@ -5799,19 +5799,19 @@
         <v>289808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>273097</v>
+        <v>270137</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>306492</v>
+        <v>305729</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.767170918387021</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7229327019971455</v>
+        <v>0.7150979433002076</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8113367689745015</v>
+        <v>0.8093161130281645</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>568</v>
@@ -5820,19 +5820,19 @@
         <v>595871</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>575317</v>
+        <v>574777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>614617</v>
+        <v>614157</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8367898094653248</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8079250680391528</v>
+        <v>0.8071666521587841</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8631143262930731</v>
+        <v>0.8624688126702522</v>
       </c>
     </row>
     <row r="21">
@@ -5924,19 +5924,19 @@
         <v>47594</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36505</v>
+        <v>36628</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59091</v>
+        <v>59182</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1851925107978686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1420440931450647</v>
+        <v>0.1425240227861482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2299277944039805</v>
+        <v>0.2302829511711096</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -5945,19 +5945,19 @@
         <v>113028</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93434</v>
+        <v>91487</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134757</v>
+        <v>132462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2824518986486061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2334859766036757</v>
+        <v>0.2286220707442882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3367508755180821</v>
+        <v>0.3310156144459355</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>141</v>
@@ -5966,19 +5966,19 @@
         <v>160623</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138337</v>
+        <v>138899</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>185106</v>
+        <v>186072</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2444167139184026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2105057116933149</v>
+        <v>0.2113600287051673</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2816722840791678</v>
+        <v>0.2831433139794397</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>209404</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>197907</v>
+        <v>197816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220493</v>
+        <v>220370</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8148074892021313</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7700722055960195</v>
+        <v>0.7697170488288904</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8579559068549354</v>
+        <v>0.8574759772138518</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>215</v>
@@ -6016,19 +6016,19 @@
         <v>287141</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>265412</v>
+        <v>267707</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>306735</v>
+        <v>308682</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7175481013513938</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.663249124481918</v>
+        <v>0.6689843855540645</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7665140233963244</v>
+        <v>0.7713779292557118</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>462</v>
@@ -6037,19 +6037,19 @@
         <v>496544</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>472061</v>
+        <v>471095</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>518830</v>
+        <v>518268</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7555832860815974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7183277159208322</v>
+        <v>0.7168566860205603</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.789494288306685</v>
+        <v>0.7886399712948328</v>
       </c>
     </row>
     <row r="24">
@@ -6141,19 +6141,19 @@
         <v>119484</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99515</v>
+        <v>100714</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>142420</v>
+        <v>143313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03520085888637804</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02931786472669364</v>
+        <v>0.0296709665606585</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04195810045325855</v>
+        <v>0.04222104688561251</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>303</v>
@@ -6162,19 +6162,19 @@
         <v>347191</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>309860</v>
+        <v>313823</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>385354</v>
+        <v>389012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0979509047708593</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08741900864611142</v>
+        <v>0.08853682970256956</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1087175767045439</v>
+        <v>0.1097496566125327</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>424</v>
@@ -6183,19 +6183,19 @@
         <v>466675</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>424462</v>
+        <v>424129</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>513397</v>
+        <v>512692</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06725499117573665</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0611714150751944</v>
+        <v>0.06112337699167627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0739883429252135</v>
+        <v>0.0738867472995807</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>3274866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3251930</v>
+        <v>3251037</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3294835</v>
+        <v>3293636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.964799141113622</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9580418995467415</v>
+        <v>0.9577789531143874</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9706821352733064</v>
+        <v>0.9703290334393415</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3035</v>
@@ -6233,19 +6233,19 @@
         <v>3197351</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3159188</v>
+        <v>3155530</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3234682</v>
+        <v>3230719</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9020490952291407</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8912824232954561</v>
+        <v>0.8902503433874673</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9125809913538885</v>
+        <v>0.9114631702974304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6145</v>
@@ -6254,19 +6254,19 @@
         <v>6472217</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6425495</v>
+        <v>6426200</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6514430</v>
+        <v>6514763</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9327450088242634</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9260116570747864</v>
+        <v>0.9261132527004188</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9388285849248049</v>
+        <v>0.9388766230083238</v>
       </c>
     </row>
     <row r="27">
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8636</v>
+        <v>8153</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004187177383445362</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02117720750851149</v>
+        <v>0.01999197990918562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6622,19 +6622,19 @@
         <v>6700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17860</v>
+        <v>17469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01848215903523331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005517916754347294</v>
+        <v>0.005548845017923224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0492672561490128</v>
+        <v>0.04818976816961971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6643,19 +6643,19 @@
         <v>8408</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2247</v>
+        <v>2229</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19713</v>
+        <v>20278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01091451496736564</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002916628167281731</v>
+        <v>0.002893594857207693</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02559057506380419</v>
+        <v>0.02632445128520254</v>
       </c>
     </row>
     <row r="5">
@@ -6672,7 +6672,7 @@
         <v>406085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>399157</v>
+        <v>399640</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6681,7 +6681,7 @@
         <v>0.9958128226165547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9788227924914883</v>
+        <v>0.980008020090814</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6693,19 +6693,19 @@
         <v>355812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>344652</v>
+        <v>345043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360512</v>
+        <v>360500</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9815178409647667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9507327438509869</v>
+        <v>0.9518102318303804</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9944820832456528</v>
+        <v>0.9944511549820768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -6714,19 +6714,19 @@
         <v>761897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>750592</v>
+        <v>750027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768058</v>
+        <v>768076</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9890854850326345</v>
+        <v>0.9890854850326344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9744094249361958</v>
+        <v>0.9736755487147973</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9970833718327183</v>
+        <v>0.9971064051427925</v>
       </c>
     </row>
     <row r="6">
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8894</v>
+        <v>8460</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005381650137324784</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01864933350681834</v>
+        <v>0.01773889666561855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -6839,19 +6839,19 @@
         <v>14131</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8390</v>
+        <v>7046</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23508</v>
+        <v>23177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0281646455471643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01672145324691302</v>
+        <v>0.01404396149852597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04685305896621916</v>
+        <v>0.04619310306353486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -6860,19 +6860,19 @@
         <v>16698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10166</v>
+        <v>9191</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26518</v>
+        <v>26855</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01706232102739439</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01038771912381734</v>
+        <v>0.009391907498291694</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02709693814775703</v>
+        <v>0.02744179426645022</v>
       </c>
     </row>
     <row r="8">
@@ -6889,16 +6889,16 @@
         <v>474324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467996</v>
+        <v>468430</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9946183498626751</v>
+        <v>0.9946183498626754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9813506664931818</v>
+        <v>0.9822611033343813</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6910,19 +6910,19 @@
         <v>487602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478225</v>
+        <v>478556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>493343</v>
+        <v>494687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9718353544528355</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9531469410337817</v>
+        <v>0.9538068969364651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.983278546753087</v>
+        <v>0.985956038501474</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -6931,19 +6931,19 @@
         <v>961925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952105</v>
+        <v>951768</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968457</v>
+        <v>969432</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9829376789726055</v>
+        <v>0.9829376789726056</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972903061852243</v>
+        <v>0.9725582057335499</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9896122808761828</v>
+        <v>0.9906080925017083</v>
       </c>
     </row>
     <row r="9">
@@ -7035,19 +7035,19 @@
         <v>18878</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10592</v>
+        <v>11502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30561</v>
+        <v>29632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03040701889298224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01706004008382625</v>
+        <v>0.0185269476180648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04922578661324865</v>
+        <v>0.04772973246009195</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -7056,19 +7056,19 @@
         <v>29729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21493</v>
+        <v>21816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39603</v>
+        <v>40753</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04770464623749797</v>
+        <v>0.04770464623749796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03448771675215594</v>
+        <v>0.0350071042124158</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06354864855972212</v>
+        <v>0.06539367467435471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -7077,19 +7077,19 @@
         <v>48607</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36890</v>
+        <v>36055</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62122</v>
+        <v>63522</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03907221073300374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02965396906490618</v>
+        <v>0.02898244752717155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04993598539562304</v>
+        <v>0.05106119755454431</v>
       </c>
     </row>
     <row r="11">
@@ -7106,19 +7106,19 @@
         <v>601959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>590276</v>
+        <v>591205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610245</v>
+        <v>609335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9695929811070176</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9507742133867512</v>
+        <v>0.9522702675399067</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9829399599161736</v>
+        <v>0.9814730523819346</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>807</v>
@@ -7127,19 +7127,19 @@
         <v>593464</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583590</v>
+        <v>582440</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>601700</v>
+        <v>601377</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9522953537625022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9364513514402778</v>
+        <v>0.9346063253256451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9655122832478439</v>
+        <v>0.9649928957875842</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1337</v>
@@ -7148,19 +7148,19 @@
         <v>1195422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1181907</v>
+        <v>1180507</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1207139</v>
+        <v>1207974</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9609277892669963</v>
+        <v>0.9609277892669961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9500640146043775</v>
+        <v>0.9489388024454557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.970346030935094</v>
+        <v>0.9710175524728285</v>
       </c>
     </row>
     <row r="12">
@@ -7252,19 +7252,19 @@
         <v>45728</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34051</v>
+        <v>33370</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61766</v>
+        <v>61064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06526888267188256</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04860100867193035</v>
+        <v>0.04762996843452962</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08815890406521071</v>
+        <v>0.08715700403919349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -7273,19 +7273,19 @@
         <v>95070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80981</v>
+        <v>80760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110362</v>
+        <v>109974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1290164853547022</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1098969076202761</v>
+        <v>0.1095968419540424</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1497685685662133</v>
+        <v>0.1492409156322376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -7294,19 +7294,19 @@
         <v>140799</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121511</v>
+        <v>119424</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161842</v>
+        <v>158103</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09794688222866579</v>
+        <v>0.09794688222866581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08452915140387064</v>
+        <v>0.08307740063315207</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1125856346315125</v>
+        <v>0.1099842092903525</v>
       </c>
     </row>
     <row r="14">
@@ -7323,19 +7323,19 @@
         <v>654889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>638851</v>
+        <v>639553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>666566</v>
+        <v>667247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9347311173281176</v>
+        <v>0.9347311173281175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9118410959347893</v>
+        <v>0.9128429959608066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9513989913280698</v>
+        <v>0.9523700315654704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>995</v>
@@ -7344,19 +7344,19 @@
         <v>641816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>626524</v>
+        <v>626912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>655905</v>
+        <v>656126</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8709835146452979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8502314314337868</v>
+        <v>0.8507590843677624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8901030923797238</v>
+        <v>0.890403158045958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1616</v>
@@ -7365,19 +7365,19 @@
         <v>1296705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1275662</v>
+        <v>1279401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1315993</v>
+        <v>1318080</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.902053117771334</v>
+        <v>0.9020531177713341</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8874143653684874</v>
+        <v>0.8900157907096474</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9154708485961294</v>
+        <v>0.9169225993668479</v>
       </c>
     </row>
     <row r="15">
@@ -7469,19 +7469,19 @@
         <v>66411</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53614</v>
+        <v>52161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80725</v>
+        <v>81400</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1089877204434042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08798573961934762</v>
+        <v>0.08560162889836125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1324783876031434</v>
+        <v>0.1335860811621073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>188</v>
@@ -7490,19 +7490,19 @@
         <v>115966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101496</v>
+        <v>101633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132055</v>
+        <v>132517</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1904663068624405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1667005148900311</v>
+        <v>0.166924248013836</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2168914146323472</v>
+        <v>0.2176493116113588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>264</v>
@@ -7511,19 +7511,19 @@
         <v>182378</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162632</v>
+        <v>162331</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>206478</v>
+        <v>202737</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1497105921016275</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1335015382755612</v>
+        <v>0.1332545422298074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1694939331500099</v>
+        <v>0.1664234274011794</v>
       </c>
     </row>
     <row r="17">
@@ -7540,19 +7540,19 @@
         <v>542935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>528621</v>
+        <v>527946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>555732</v>
+        <v>557185</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8910122795565957</v>
+        <v>0.8910122795565959</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8675216123968565</v>
+        <v>0.8664139188378924</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9120142603806523</v>
+        <v>0.9143983711016387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>814</v>
@@ -7561,19 +7561,19 @@
         <v>492889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>476800</v>
+        <v>476338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>507359</v>
+        <v>507222</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8095336931375593</v>
+        <v>0.8095336931375596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7831085853676528</v>
+        <v>0.7823506883886413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8332994851099689</v>
+        <v>0.8330757519861641</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1401</v>
@@ -7582,19 +7582,19 @@
         <v>1035824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1011724</v>
+        <v>1015465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1055570</v>
+        <v>1055871</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8502894078983726</v>
+        <v>0.8502894078983725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.83050606684999</v>
+        <v>0.83357657259882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8664984617244388</v>
+        <v>0.8667454577701924</v>
       </c>
     </row>
     <row r="18">
@@ -7686,19 +7686,19 @@
         <v>58529</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48053</v>
+        <v>48713</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71683</v>
+        <v>71367</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1437778741592038</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1180438873982782</v>
+        <v>0.1196640456455853</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1760910185143945</v>
+        <v>0.1753140234248226</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>236</v>
@@ -7707,19 +7707,19 @@
         <v>129034</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>116252</v>
+        <v>114948</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143094</v>
+        <v>142615</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2938165619070891</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2647097658800109</v>
+        <v>0.2617411112518794</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3258319481177903</v>
+        <v>0.3247412585421448</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>327</v>
@@ -7728,19 +7728,19 @@
         <v>187563</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>168867</v>
+        <v>168752</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>206274</v>
+        <v>205197</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2216416690402623</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1995486535371967</v>
+        <v>0.1994122029561341</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2437514253326253</v>
+        <v>0.2424792786312636</v>
       </c>
     </row>
     <row r="20">
@@ -7757,19 +7757,19 @@
         <v>348551</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>335397</v>
+        <v>335713</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>359027</v>
+        <v>358367</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8562221258407962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8239089814856055</v>
+        <v>0.8246859765751772</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8819561126017217</v>
+        <v>0.8803359543544147</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>591</v>
@@ -7778,19 +7778,19 @@
         <v>310132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>296072</v>
+        <v>296551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322914</v>
+        <v>324218</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.706183438092911</v>
+        <v>0.7061834380929111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6741680518822097</v>
+        <v>0.6752587414578551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7352902341199892</v>
+        <v>0.7382588887481205</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1070</v>
@@ -7799,19 +7799,19 @@
         <v>658683</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>639972</v>
+        <v>641049</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>677379</v>
+        <v>677494</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7783583309597376</v>
+        <v>0.7783583309597377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7562485746673744</v>
+        <v>0.7575207213687363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8004513464628032</v>
+        <v>0.8005877970438654</v>
       </c>
     </row>
     <row r="21">
@@ -7903,19 +7903,19 @@
         <v>102790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89936</v>
+        <v>88385</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116338</v>
+        <v>116458</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.331368701986118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2899293713277301</v>
+        <v>0.2849312210133443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3750439232503977</v>
+        <v>0.3754310041246494</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>436</v>
@@ -7924,19 +7924,19 @@
         <v>221775</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>206656</v>
+        <v>204968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238130</v>
+        <v>236129</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4773364525547116</v>
+        <v>0.4773364525547115</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4447946050140629</v>
+        <v>0.4411615661094161</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5125390919342665</v>
+        <v>0.5082305838470761</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>598</v>
@@ -7945,19 +7945,19 @@
         <v>324565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>302422</v>
+        <v>301216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>344773</v>
+        <v>342795</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4188974636599114</v>
+        <v>0.4188974636599113</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.390319331971931</v>
+        <v>0.3887630711521932</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4449791884989402</v>
+        <v>0.4424258216058549</v>
       </c>
     </row>
     <row r="23">
@@ -7974,19 +7974,19 @@
         <v>207408</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>193860</v>
+        <v>193740</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220262</v>
+        <v>221813</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6686312980138819</v>
+        <v>0.668631298013882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6249560767496022</v>
+        <v>0.6245689958753501</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7100706286722703</v>
+        <v>0.7150687789866556</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>445</v>
@@ -7995,19 +7995,19 @@
         <v>242834</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>226479</v>
+        <v>228480</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>257953</v>
+        <v>259641</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5226635474452884</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4874609080657329</v>
+        <v>0.4917694161529237</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5552053949859369</v>
+        <v>0.5588384338905836</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>741</v>
@@ -8016,19 +8016,19 @@
         <v>450242</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>430034</v>
+        <v>432012</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>472385</v>
+        <v>473591</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5811025363400887</v>
+        <v>0.5811025363400886</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5550208115010598</v>
+        <v>0.5575741783941451</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6096806680280692</v>
+        <v>0.6112369288478068</v>
       </c>
     </row>
     <row r="24">
@@ -8120,19 +8120,19 @@
         <v>296611</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>266575</v>
+        <v>265547</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>329967</v>
+        <v>327016</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08395997600994848</v>
+        <v>0.08395997600994846</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07545796431254684</v>
+        <v>0.07516693162555334</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09340205932408133</v>
+        <v>0.09256652663953151</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1064</v>
@@ -8141,19 +8141,19 @@
         <v>612406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>576726</v>
+        <v>577370</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>647787</v>
+        <v>649137</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1638784621599326</v>
+        <v>0.1638784621599325</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.154330419170001</v>
+        <v>0.154502949487301</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1733462312597545</v>
+        <v>0.1737074110250952</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1456</v>
@@ -8162,19 +8162,19 @@
         <v>909017</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>861525</v>
+        <v>864032</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>955437</v>
+        <v>958799</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1250415969027669</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1185088046878754</v>
+        <v>0.1188536030113951</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1314269415704956</v>
+        <v>0.1318895371300452</v>
       </c>
     </row>
     <row r="26">
@@ -8191,19 +8191,19 @@
         <v>3236151</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3202795</v>
+        <v>3205746</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3266187</v>
+        <v>3267215</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9160400239900516</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9065979406759187</v>
+        <v>0.9074334733604685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9245420356874532</v>
+        <v>0.9248330683744466</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4303</v>
@@ -8212,19 +8212,19 @@
         <v>3124548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3089167</v>
+        <v>3087817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3160228</v>
+        <v>3159584</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8361215378400676</v>
+        <v>0.8361215378400675</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8266537687402455</v>
+        <v>0.8262925889749048</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.845669580829999</v>
+        <v>0.845497050512699</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7287</v>
@@ -8233,19 +8233,19 @@
         <v>6360699</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6314279</v>
+        <v>6310917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6408191</v>
+        <v>6405684</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8749584030972332</v>
+        <v>0.8749584030972331</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8685730584295043</v>
+        <v>0.8681104628699546</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8814911953121245</v>
+        <v>0.8811463969886048</v>
       </c>
     </row>
     <row r="27">
